--- a/AfDD_2023_Annex_Table_Tab10.xlsx
+++ b/AfDD_2023_Annex_Table_Tab10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -5719,7 +5719,7 @@
         <v>13.738971559671601</v>
       </c>
       <c r="J89" s="40">
-        <v>5.9570933688534602</v>
+        <v>5.95709336885347</v>
       </c>
       <c r="K89" s="41">
         <v>37.459564058028398</v>

--- a/AfDD_2023_Annex_Table_Tab10.xlsx
+++ b/AfDD_2023_Annex_Table_Tab10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C206484-5A4D-4CEA-8BB9-B86EC2A7B0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AD906E0-0422-407A-BBAB-1D91AFC9DD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{2C53814F-890A-40B1-B679-66E144B175AB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB675E30-DA67-4DB1-A26D-7D8F856877D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="173">
   <si>
     <t>Table 10: Gender indicators</t>
   </si>
@@ -57,19 +57,19 @@
     <t>Gender Inequality Index (GII), 2019</t>
   </si>
   <si>
-    <t>Social Institutions and Gender Index (SIGI) 2019</t>
-  </si>
-  <si>
-    <t>Discrimination in the family (SIGI subindex) 2019</t>
-  </si>
-  <si>
-    <t>Restricted physical integrity (SIGI subindex) 2019</t>
-  </si>
-  <si>
-    <t>Restricted access to productive and financial resources (SIGI subindex) 2019</t>
-  </si>
-  <si>
-    <t>Restricted civil liberties (SIGI subindex) 2019</t>
+    <t>Social Institutions and Gender Index (SIGI) 2023</t>
+  </si>
+  <si>
+    <t>Discrimination in the family (SIGI subindex) 2023</t>
+  </si>
+  <si>
+    <t>Restricted physical integrity (SIGI subindex) 2023</t>
+  </si>
+  <si>
+    <t>Restricted access to productive and financial resources (SIGI subindex) 2023</t>
+  </si>
+  <si>
+    <t>Restricted civil liberties (SIGI subindex) 2023</t>
   </si>
   <si>
     <t>AGO</t>
@@ -78,21 +78,21 @@
     <t>Angola*</t>
   </si>
   <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>..</t>
   </si>
   <si>
-    <t>BWA</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>SWZ</t>
-  </si>
-  <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>LSO</t>
   </si>
   <si>
@@ -537,7 +537,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: United Nations Development Programme Human Development Data Online (2021 edition), Social Institutions and Gender Index, OECD Development Centre (updated with new methodology December 2018).</t>
@@ -1363,7 +1363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F11900-5C9A-4430-AF2D-079B40DBA11F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0910DCA8-48A2-4F05-BFEC-A7E5A0900641}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1439,28 +1439,28 @@
       <c r="E3" s="11">
         <v>0.53600000000000003</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>13</v>
+      <c r="F3" s="12">
+        <v>26.2</v>
       </c>
       <c r="G3" s="12">
-        <v>47.2</v>
+        <v>22.2</v>
       </c>
       <c r="H3" s="12">
-        <v>19</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>13</v>
+        <v>29.4</v>
+      </c>
+      <c r="I3" s="12">
+        <v>41</v>
+      </c>
+      <c r="J3" s="13">
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="15">
         <v>0.73499999999999999</v>
@@ -1471,28 +1471,28 @@
       <c r="E4" s="16">
         <v>0.46500000000000002</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>13</v>
+      <c r="F4" s="17">
+        <v>32.200000000000003</v>
       </c>
       <c r="G4" s="17">
-        <v>39.6</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>13</v>
+        <v>53.2</v>
+      </c>
+      <c r="H4" s="17">
+        <v>14.3</v>
       </c>
       <c r="I4" s="17">
-        <v>39.9</v>
+        <v>20</v>
       </c>
       <c r="J4" s="18">
-        <v>52.4</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="20">
         <v>0.61099999999999999</v>
@@ -1504,19 +1504,19 @@
         <v>0.56699999999999995</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" s="22">
-        <v>59.2</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>13</v>
+        <v>47.9</v>
+      </c>
+      <c r="H5" s="22">
+        <v>48.7</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="J5" s="23">
+        <v>56.1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -1536,19 +1536,19 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="F6" s="22">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="G6" s="22">
-        <v>46.5</v>
+        <v>64</v>
       </c>
       <c r="H6" s="22">
-        <v>26.9</v>
+        <v>21.2</v>
       </c>
       <c r="I6" s="22">
-        <v>40.5</v>
+        <v>46.3</v>
       </c>
       <c r="J6" s="23">
-        <v>37.6</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -1568,19 +1568,19 @@
         <v>0.56499999999999995</v>
       </c>
       <c r="F7" s="22">
-        <v>41.4</v>
+        <v>32.9</v>
       </c>
       <c r="G7" s="22">
-        <v>38.5</v>
+        <v>12.7</v>
       </c>
       <c r="H7" s="22">
-        <v>24.1</v>
+        <v>34.1</v>
       </c>
       <c r="I7" s="22">
-        <v>37.4</v>
+        <v>25.8</v>
       </c>
       <c r="J7" s="23">
-        <v>61.9</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -1600,19 +1600,19 @@
         <v>0.52300000000000002</v>
       </c>
       <c r="F8" s="22">
-        <v>24.3</v>
+        <v>22.6</v>
       </c>
       <c r="G8" s="22">
-        <v>32</v>
+        <v>21.6</v>
       </c>
       <c r="H8" s="22">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="I8" s="22">
-        <v>15.3</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="J8" s="23">
-        <v>32.9</v>
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -1632,19 +1632,19 @@
         <v>0.44</v>
       </c>
       <c r="F9" s="22">
-        <v>27.1</v>
+        <v>28.7</v>
       </c>
       <c r="G9" s="22">
-        <v>33.1</v>
+        <v>26.1</v>
       </c>
       <c r="H9" s="22">
-        <v>12.6</v>
+        <v>48.5</v>
       </c>
       <c r="I9" s="22">
         <v>26.2</v>
       </c>
       <c r="J9" s="23">
-        <v>35.1</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1664,19 +1664,19 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="F10" s="22">
-        <v>22.4</v>
+        <v>25.7</v>
       </c>
       <c r="G10" s="22">
-        <v>33.200000000000003</v>
+        <v>60</v>
       </c>
       <c r="H10" s="22">
-        <v>15.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="I10" s="22">
-        <v>19.600000000000001</v>
+        <v>12.2</v>
       </c>
       <c r="J10" s="23">
-        <v>21</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1696,19 +1696,19 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="F11" s="17">
-        <v>34.799999999999997</v>
+        <v>30.4</v>
       </c>
       <c r="G11" s="17">
-        <v>40.700000000000003</v>
+        <v>34</v>
       </c>
       <c r="H11" s="17">
-        <v>27.6</v>
+        <v>26.6</v>
       </c>
       <c r="I11" s="17">
+        <v>32.6</v>
+      </c>
+      <c r="J11" s="18">
         <v>28.2</v>
-      </c>
-      <c r="J11" s="18">
-        <v>41.8</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1728,19 +1728,19 @@
         <v>0.52700000000000002</v>
       </c>
       <c r="F12" s="22">
-        <v>32.4</v>
+        <v>19.5</v>
       </c>
       <c r="G12" s="22">
-        <v>42.8</v>
+        <v>18.8</v>
       </c>
       <c r="H12" s="22">
-        <v>20.2</v>
+        <v>19.8</v>
       </c>
       <c r="I12" s="22">
-        <v>34.299999999999997</v>
+        <v>29.9</v>
       </c>
       <c r="J12" s="23">
-        <v>30.9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1760,19 +1760,19 @@
         <v>0.5121</v>
       </c>
       <c r="F13" s="28">
-        <v>31.5</v>
+        <v>28.455555555555598</v>
       </c>
       <c r="G13" s="28">
-        <v>41.28</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="H13" s="28">
-        <v>20.125</v>
+        <v>27.57</v>
       </c>
       <c r="I13" s="28">
-        <v>30.175000000000001</v>
+        <v>29.755555555555599</v>
       </c>
       <c r="J13" s="29">
-        <v>39.200000000000003</v>
+        <v>23.61</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1791,20 +1791,20 @@
       <c r="E14" s="21">
         <v>0.504</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>13</v>
+      <c r="F14" s="22">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="G14" s="22">
+        <v>62.5</v>
       </c>
       <c r="H14" s="22">
-        <v>31.9</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>13</v>
+        <v>25.8</v>
+      </c>
+      <c r="I14" s="22">
+        <v>37.4</v>
+      </c>
+      <c r="J14" s="23">
+        <v>33.6</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1824,19 +1824,19 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="F15" s="22">
-        <v>51.8</v>
+        <v>66.2</v>
       </c>
       <c r="G15" s="22">
-        <v>51.1</v>
+        <v>86.7</v>
       </c>
       <c r="H15" s="22">
-        <v>26.3</v>
+        <v>27.7</v>
       </c>
       <c r="I15" s="22">
-        <v>77.7</v>
+        <v>83.9</v>
       </c>
       <c r="J15" s="23">
-        <v>45.4</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1856,19 +1856,19 @@
         <v>0.68</v>
       </c>
       <c r="F16" s="22">
-        <v>43.4</v>
+        <v>49.1</v>
       </c>
       <c r="G16" s="22">
-        <v>56.4</v>
+        <v>65</v>
       </c>
       <c r="H16" s="22">
-        <v>24.5</v>
+        <v>31.4</v>
       </c>
       <c r="I16" s="22">
-        <v>35.1</v>
+        <v>47.1</v>
       </c>
       <c r="J16" s="23">
-        <v>54.2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1888,19 +1888,19 @@
         <v>0.71</v>
       </c>
       <c r="F17" s="33">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="G17" s="33">
-        <v>55.8</v>
+        <v>45.9</v>
       </c>
       <c r="H17" s="33">
-        <v>32.200000000000003</v>
+        <v>29.6</v>
       </c>
       <c r="I17" s="33">
-        <v>61.9</v>
+        <v>80.2</v>
       </c>
       <c r="J17" s="34">
-        <v>27.2</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -1920,19 +1920,19 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G18" s="33">
-        <v>42.8</v>
+        <v>55</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="I18" s="33">
+        <v>58.1</v>
       </c>
       <c r="J18" s="34">
-        <v>58.3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1952,19 +1952,19 @@
         <v>0.61699999999999999</v>
       </c>
       <c r="F19" s="17">
-        <v>39.5</v>
+        <v>47.1</v>
       </c>
       <c r="G19" s="17">
-        <v>53</v>
+        <v>52.5</v>
       </c>
       <c r="H19" s="17">
-        <v>35.1</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="I19" s="17">
-        <v>46.4</v>
+        <v>65.2</v>
       </c>
       <c r="J19" s="18">
-        <v>20.7</v>
+        <v>34.700000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -1978,25 +1978,25 @@
         <v>0.59199999999999997</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G20" s="33">
-        <v>63.9</v>
+        <v>55.5</v>
       </c>
       <c r="H20" s="33">
-        <v>37.5</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -2016,19 +2016,19 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="F21" s="33">
-        <v>40.1</v>
+        <v>33.4</v>
       </c>
       <c r="G21" s="33">
-        <v>50.5</v>
+        <v>41.9</v>
       </c>
       <c r="H21" s="33">
-        <v>37.299999999999997</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="I21" s="33">
-        <v>45.5</v>
+        <v>40.4</v>
       </c>
       <c r="J21" s="34">
-        <v>25.6</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2048,19 +2048,19 @@
         <v>0.53700000000000003</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G22" s="22">
-        <v>16.399999999999999</v>
+        <v>5</v>
       </c>
       <c r="H22" s="22">
-        <v>13.8</v>
+        <v>14.9</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2080,19 +2080,19 @@
         <v>0.58787500000000004</v>
       </c>
       <c r="F23" s="28">
-        <v>44.04</v>
+        <v>47.016666666666701</v>
       </c>
       <c r="G23" s="28">
-        <v>48.737499999999997</v>
+        <v>52.2222222222222</v>
       </c>
       <c r="H23" s="28">
-        <v>29.824999999999999</v>
+        <v>27.6875</v>
       </c>
       <c r="I23" s="28">
-        <v>53.32</v>
+        <v>58.9</v>
       </c>
       <c r="J23" s="29">
-        <v>38.566666666666698</v>
+        <v>37.757142857142902</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -2109,22 +2109,22 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="F24" s="22">
+        <v>55</v>
       </c>
       <c r="G24" s="22">
-        <v>80.900000000000006</v>
+        <v>87.2</v>
       </c>
       <c r="H24" s="22">
-        <v>28.2</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>13</v>
+        <v>30.6</v>
+      </c>
+      <c r="I24" s="22">
+        <v>30.7</v>
+      </c>
+      <c r="J24" s="23">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -2138,25 +2138,25 @@
         <v>0.52400000000000002</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G25" s="22">
-        <v>72.900000000000006</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="I25" s="22">
+        <v>44.8</v>
+      </c>
+      <c r="J25" s="23">
+        <v>36.1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -2170,25 +2170,25 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G26" s="22">
-        <v>42</v>
+        <v>55.1</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -2208,19 +2208,19 @@
         <v>0.51700000000000002</v>
       </c>
       <c r="F27" s="22">
-        <v>29.6</v>
+        <v>31.4</v>
       </c>
       <c r="G27" s="22">
-        <v>34.799999999999997</v>
+        <v>40.6</v>
       </c>
       <c r="H27" s="22">
-        <v>30.8</v>
+        <v>23.8</v>
       </c>
       <c r="I27" s="22">
-        <v>34</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J27" s="23">
-        <v>17.899999999999999</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -2240,19 +2240,19 @@
         <v>0.51800000000000002</v>
       </c>
       <c r="F28" s="22">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="G28" s="22">
-        <v>50.5</v>
+        <v>40.1</v>
       </c>
       <c r="H28" s="22">
-        <v>28.9</v>
+        <v>30.6</v>
       </c>
       <c r="I28" s="22">
-        <v>42.2</v>
+        <v>44.7</v>
       </c>
       <c r="J28" s="23">
-        <v>17.2</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -2269,22 +2269,22 @@
         <v>0.95199999999999996</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F29" s="22">
-        <v>47.5</v>
+        <v>41.4</v>
       </c>
       <c r="G29" s="22">
-        <v>57.2</v>
+        <v>43.3</v>
       </c>
       <c r="H29" s="22">
-        <v>31.6</v>
+        <v>30.9</v>
       </c>
       <c r="I29" s="22">
         <v>39.200000000000003</v>
       </c>
       <c r="J29" s="23">
-        <v>59.4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -2304,19 +2304,19 @@
         <v>0.34699999999999998</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G30" s="22">
-        <v>52.7</v>
+        <v>47.1</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I30" s="22">
-        <v>19.2</v>
+        <v>6.1</v>
       </c>
       <c r="J30" s="23">
-        <v>40.700000000000003</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -2336,19 +2336,19 @@
         <v>0.40200000000000002</v>
       </c>
       <c r="F31" s="22">
-        <v>27.6</v>
+        <v>25.7</v>
       </c>
       <c r="G31" s="22">
-        <v>38</v>
+        <v>35.4</v>
       </c>
       <c r="H31" s="22">
-        <v>21.4</v>
+        <v>17.3</v>
       </c>
       <c r="I31" s="22">
-        <v>26.5</v>
+        <v>39.6</v>
       </c>
       <c r="J31" s="23">
-        <v>23.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -2362,25 +2362,25 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G32" s="22">
-        <v>40.700000000000003</v>
+        <v>8.6</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -2391,28 +2391,28 @@
         <v>72</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="F33" s="22">
+        <v>51.5</v>
       </c>
       <c r="G33" s="22">
-        <v>76.2</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="23" t="s">
-        <v>13</v>
+        <v>71.099999999999994</v>
+      </c>
+      <c r="H33" s="22">
+        <v>36.9</v>
+      </c>
+      <c r="I33" s="22">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="J33" s="23">
+        <v>53.6</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -2429,22 +2429,22 @@
         <v>0.84199999999999997</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="F34" s="17">
+        <v>38.4</v>
       </c>
       <c r="G34" s="17">
         <v>60.5</v>
       </c>
-      <c r="H34" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>13</v>
+      <c r="H34" s="17">
+        <v>37.6</v>
+      </c>
+      <c r="I34" s="17">
+        <v>33.1</v>
       </c>
       <c r="J34" s="18">
-        <v>23.2</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -2463,20 +2463,20 @@
       <c r="E35" s="21">
         <v>0.54500000000000004</v>
       </c>
-      <c r="F35" s="22" t="s">
-        <v>13</v>
+      <c r="F35" s="22">
+        <v>63.3</v>
       </c>
       <c r="G35" s="22">
         <v>89.9</v>
       </c>
-      <c r="H35" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="23" t="s">
-        <v>13</v>
+      <c r="H35" s="22">
+        <v>33</v>
+      </c>
+      <c r="I35" s="22">
+        <v>86.8</v>
+      </c>
+      <c r="J35" s="23">
+        <v>26.5</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -2496,19 +2496,19 @@
         <v>0.55600000000000005</v>
       </c>
       <c r="F36" s="22">
-        <v>46.1</v>
+        <v>50</v>
       </c>
       <c r="G36" s="22">
-        <v>80.599999999999994</v>
+        <v>86.9</v>
       </c>
       <c r="H36" s="22">
-        <v>28.5</v>
+        <v>34.9</v>
       </c>
       <c r="I36" s="22">
-        <v>30</v>
+        <v>31.4</v>
       </c>
       <c r="J36" s="23">
-        <v>35.200000000000003</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2528,19 +2528,19 @@
         <v>0.53500000000000003</v>
       </c>
       <c r="F37" s="22">
-        <v>45.1</v>
+        <v>28.9</v>
       </c>
       <c r="G37" s="22">
-        <v>54</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="H37" s="22">
-        <v>34.299999999999997</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="I37" s="22">
-        <v>61.4</v>
+        <v>28.2</v>
       </c>
       <c r="J37" s="23">
-        <v>26.6</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2560,19 +2560,19 @@
         <v>0.48857142857142999</v>
       </c>
       <c r="F38" s="28">
-        <v>38.566666666666698</v>
+        <v>42.12</v>
       </c>
       <c r="G38" s="28">
-        <v>59.35</v>
+        <v>56.178571428571402</v>
       </c>
       <c r="H38" s="28">
-        <v>29.1</v>
+        <v>31.33</v>
       </c>
       <c r="I38" s="28">
-        <v>36.071428571428598</v>
+        <v>38.841666666666697</v>
       </c>
       <c r="J38" s="29">
-        <v>30.462499999999999</v>
+        <v>31.1666666666667</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -2592,19 +2592,19 @@
         <v>0.42899999999999999</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G39" s="33">
         <v>79.900000000000006</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I39" s="33">
-        <v>41.2</v>
+        <v>46.5</v>
       </c>
       <c r="J39" s="34">
-        <v>61.3</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -2623,20 +2623,20 @@
       <c r="E40" s="21">
         <v>0.44900000000000001</v>
       </c>
-      <c r="F40" s="22" t="s">
-        <v>13</v>
+      <c r="F40" s="22">
+        <v>57.1</v>
       </c>
       <c r="G40" s="22">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>13</v>
+        <v>81.400000000000006</v>
+      </c>
+      <c r="H40" s="22">
+        <v>31.1</v>
       </c>
       <c r="I40" s="22">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="J40" s="23" t="s">
-        <v>13</v>
+        <v>46.7</v>
+      </c>
+      <c r="J40" s="23">
+        <v>62.2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -2656,19 +2656,19 @@
         <v>0.252</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G41" s="33">
-        <v>40.799999999999997</v>
+        <v>86.3</v>
       </c>
       <c r="H41" s="33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I41" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" s="34" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="J41" s="34">
+        <v>72.3</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -2687,20 +2687,20 @@
       <c r="E42" s="32">
         <v>0.63400000000000001</v>
       </c>
-      <c r="F42" s="33" t="s">
-        <v>13</v>
+      <c r="F42" s="33">
+        <v>67.7</v>
       </c>
       <c r="G42" s="33">
-        <v>88.1</v>
-      </c>
-      <c r="H42" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="33" t="s">
-        <v>13</v>
+        <v>88</v>
+      </c>
+      <c r="H42" s="33">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="I42" s="33">
+        <v>85.6</v>
       </c>
       <c r="J42" s="34">
-        <v>52.2</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -2720,19 +2720,19 @@
         <v>0.45400000000000001</v>
       </c>
       <c r="F43" s="22">
-        <v>50.8</v>
+        <v>48.8</v>
       </c>
       <c r="G43" s="22">
-        <v>73.400000000000006</v>
+        <v>73.3</v>
       </c>
       <c r="H43" s="22">
-        <v>25.7</v>
+        <v>28.5</v>
       </c>
       <c r="I43" s="22">
-        <v>37.799999999999997</v>
+        <v>44</v>
       </c>
       <c r="J43" s="23">
-        <v>59.3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2752,19 +2752,19 @@
         <v>0.29599999999999999</v>
       </c>
       <c r="F44" s="22">
-        <v>47.6</v>
+        <v>49.2</v>
       </c>
       <c r="G44" s="22">
-        <v>79.900000000000006</v>
+        <v>86.3</v>
       </c>
       <c r="H44" s="22">
-        <v>9.4</v>
+        <v>11.1</v>
       </c>
       <c r="I44" s="22">
-        <v>35</v>
+        <v>37.4</v>
       </c>
       <c r="J44" s="23">
-        <v>52.8</v>
+        <v>46.9</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2784,19 +2784,19 @@
         <v>0.41899999999999998</v>
       </c>
       <c r="F45" s="28">
-        <v>49.2</v>
+        <v>55.7</v>
       </c>
       <c r="G45" s="28">
-        <v>73.45</v>
+        <v>82.533333333333402</v>
       </c>
       <c r="H45" s="28">
-        <v>17.55</v>
+        <v>25.75</v>
       </c>
       <c r="I45" s="28">
-        <v>44.65</v>
+        <v>52.04</v>
       </c>
       <c r="J45" s="29">
-        <v>56.4</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
@@ -2816,19 +2816,19 @@
         <v>0.61199999999999999</v>
       </c>
       <c r="F46" s="22">
-        <v>39.799999999999997</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="G46" s="22">
-        <v>40.5</v>
+        <v>22.2</v>
       </c>
       <c r="H46" s="22">
-        <v>27.7</v>
+        <v>14.5</v>
       </c>
       <c r="I46" s="22">
-        <v>36.200000000000003</v>
+        <v>39.1</v>
       </c>
       <c r="J46" s="23">
-        <v>53.3</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
@@ -2848,19 +2848,19 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="F47" s="22">
-        <v>32.4</v>
+        <v>25.6</v>
       </c>
       <c r="G47" s="22">
-        <v>44.9</v>
+        <v>29.2</v>
       </c>
       <c r="H47" s="22">
-        <v>35.5</v>
+        <v>23</v>
       </c>
       <c r="I47" s="22">
-        <v>32.9</v>
+        <v>30.5</v>
       </c>
       <c r="J47" s="23">
-        <v>13.8</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
@@ -2880,19 +2880,19 @@
         <v>0.39700000000000002</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G48" s="33">
-        <v>36.799999999999997</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H48" s="33">
-        <v>9.9</v>
+        <v>16.3</v>
       </c>
       <c r="I48" s="33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
@@ -2912,19 +2912,19 @@
         <v>0.63800000000000001</v>
       </c>
       <c r="F49" s="22">
-        <v>42.8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="G49" s="22">
-        <v>29.7</v>
+        <v>12.4</v>
       </c>
       <c r="H49" s="22">
-        <v>35.6</v>
+        <v>28.6</v>
       </c>
       <c r="I49" s="22">
-        <v>76.099999999999994</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="J49" s="23">
-        <v>20.399999999999999</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
@@ -2943,20 +2943,20 @@
       <c r="E50" s="21">
         <v>0.61199999999999999</v>
       </c>
-      <c r="F50" s="22" t="s">
-        <v>13</v>
+      <c r="F50" s="22">
+        <v>48</v>
       </c>
       <c r="G50" s="22">
-        <v>87.8</v>
+        <v>66.5</v>
       </c>
       <c r="H50" s="22">
-        <v>44.9</v>
-      </c>
-      <c r="I50" s="22" t="s">
-        <v>13</v>
+        <v>31.6</v>
+      </c>
+      <c r="I50" s="22">
+        <v>47.4</v>
       </c>
       <c r="J50" s="23">
-        <v>48.4</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
@@ -2976,19 +2976,19 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F51" s="17">
-        <v>34.5</v>
+        <v>38.5</v>
       </c>
       <c r="G51" s="17">
-        <v>59.5</v>
+        <v>44.3</v>
       </c>
       <c r="H51" s="17">
-        <v>20.2</v>
+        <v>28.5</v>
       </c>
       <c r="I51" s="17">
-        <v>30.7</v>
+        <v>26</v>
       </c>
       <c r="J51" s="18">
-        <v>22.7</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
@@ -3005,22 +3005,22 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F52" s="22">
-        <v>56.7</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="G52" s="22">
-        <v>87.7</v>
+        <v>56</v>
       </c>
       <c r="H52" s="22">
-        <v>56.9</v>
+        <v>28.6</v>
       </c>
       <c r="I52" s="22">
-        <v>28.2</v>
+        <v>34.6</v>
       </c>
       <c r="J52" s="23">
-        <v>44.4</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
@@ -3034,25 +3034,25 @@
         <v>0.48</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G53" s="22">
-        <v>59.7</v>
+        <v>42.1</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J53" s="23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
@@ -3072,19 +3072,19 @@
         <v>0.65</v>
       </c>
       <c r="F54" s="22">
-        <v>47.5</v>
+        <v>40.1</v>
       </c>
       <c r="G54" s="22">
-        <v>60</v>
+        <v>59.8</v>
       </c>
       <c r="H54" s="22">
-        <v>33.5</v>
+        <v>46.3</v>
       </c>
       <c r="I54" s="22">
-        <v>41.5</v>
+        <v>29.1</v>
       </c>
       <c r="J54" s="23">
-        <v>52.8</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
@@ -3104,19 +3104,19 @@
         <v>0.67100000000000004</v>
       </c>
       <c r="F55" s="22">
-        <v>46</v>
+        <v>52.9</v>
       </c>
       <c r="G55" s="22">
-        <v>63.5</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="H55" s="22">
-        <v>48.4</v>
+        <v>55.6</v>
       </c>
       <c r="I55" s="22">
-        <v>39.9</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="J55" s="23">
-        <v>28.9</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
@@ -3135,20 +3135,20 @@
       <c r="E56" s="21">
         <v>0.64200000000000002</v>
       </c>
-      <c r="F56" s="22" t="s">
-        <v>13</v>
+      <c r="F56" s="22">
+        <v>60.3</v>
       </c>
       <c r="G56" s="22">
-        <v>84.4</v>
-      </c>
-      <c r="H56" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="22" t="s">
-        <v>13</v>
+        <v>84.1</v>
+      </c>
+      <c r="H56" s="22">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="I56" s="22">
+        <v>84.6</v>
       </c>
       <c r="J56" s="23">
-        <v>25.6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
@@ -3165,22 +3165,22 @@
         <v>0.88100000000000001</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F57" s="33">
-        <v>46</v>
+        <v>42.9</v>
       </c>
       <c r="G57" s="33">
-        <v>54.8</v>
+        <v>56.5</v>
       </c>
       <c r="H57" s="33">
-        <v>32</v>
+        <v>28.5</v>
       </c>
       <c r="I57" s="33">
-        <v>41.4</v>
+        <v>36.4</v>
       </c>
       <c r="J57" s="34">
-        <v>53.9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
@@ -3200,19 +3200,19 @@
         <v>0.53300000000000003</v>
       </c>
       <c r="F58" s="22">
-        <v>37</v>
+        <v>41.8</v>
       </c>
       <c r="G58" s="22">
-        <v>64.900000000000006</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="H58" s="22">
-        <v>41.9</v>
+        <v>37.9</v>
       </c>
       <c r="I58" s="22">
-        <v>27.6</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="J58" s="23">
-        <v>3.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
@@ -3232,19 +3232,19 @@
         <v>0.64400000000000002</v>
       </c>
       <c r="F59" s="22">
-        <v>47.6</v>
+        <v>48</v>
       </c>
       <c r="G59" s="22">
-        <v>53.7</v>
+        <v>41.9</v>
       </c>
       <c r="H59" s="22">
-        <v>50.4</v>
+        <v>47.8</v>
       </c>
       <c r="I59" s="22">
-        <v>44.8</v>
+        <v>51</v>
       </c>
       <c r="J59" s="23">
-        <v>40.9</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3264,19 +3264,19 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="F60" s="17">
-        <v>49.5</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="G60" s="17">
-        <v>63.1</v>
+        <v>51.1</v>
       </c>
       <c r="H60" s="17">
-        <v>24.7</v>
+        <v>28</v>
       </c>
       <c r="I60" s="17">
-        <v>43.5</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="J60" s="18">
-        <v>62</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3296,19 +3296,19 @@
         <v>0.59199999999999997</v>
       </c>
       <c r="F61" s="28">
-        <v>43.618181818181803</v>
+        <v>40.2615384615385</v>
       </c>
       <c r="G61" s="28">
-        <v>59.4</v>
+        <v>47.946666666666701</v>
       </c>
       <c r="H61" s="28">
-        <v>35.507692307692302</v>
+        <v>32.071428571428598</v>
       </c>
       <c r="I61" s="28">
-        <v>40.2545454545455</v>
+        <v>37.630769230769197</v>
       </c>
       <c r="J61" s="29">
-        <v>36.207692307692298</v>
+        <v>34.2153846153846</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3328,19 +3328,19 @@
         <v>0.53167441860465003</v>
       </c>
       <c r="F62" s="40">
-        <v>40.332258064516097</v>
+        <v>40.6095238095238</v>
       </c>
       <c r="G62" s="40">
-        <v>55.949056603773599</v>
+        <v>52.433333333333401</v>
       </c>
       <c r="H62" s="40">
-        <v>28.947368421052602</v>
+        <v>29.619565217391301</v>
       </c>
       <c r="I62" s="40">
-        <v>39.482857142857199</v>
+        <v>41.208695652173901</v>
       </c>
       <c r="J62" s="41">
-        <v>38.076923076923102</v>
+        <v>34.595833333333303</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3360,19 +3360,19 @@
         <v>0.27639495798319003</v>
       </c>
       <c r="F63" s="45">
-        <v>25.784090909090899</v>
+        <v>25.314893617021301</v>
       </c>
       <c r="G63" s="45">
-        <v>38.530327868852503</v>
+        <v>31.188333333333301</v>
       </c>
       <c r="H63" s="45">
-        <v>19.038709677419401</v>
+        <v>26.821153846153798</v>
       </c>
       <c r="I63" s="45">
-        <v>22.842268041237102</v>
+        <v>22.7</v>
       </c>
       <c r="J63" s="46">
-        <v>24.610416666666701</v>
+        <v>26.0304761904762</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
@@ -3392,19 +3392,19 @@
         <v>0.39182142857142999</v>
       </c>
       <c r="F64" s="40">
-        <v>25.433333333333302</v>
+        <v>21.9136363636364</v>
       </c>
       <c r="G64" s="40">
-        <v>31.1620689655172</v>
+        <v>22.226666666666699</v>
       </c>
       <c r="H64" s="40">
-        <v>21.816666666666698</v>
+        <v>26.376000000000001</v>
       </c>
       <c r="I64" s="40">
-        <v>22.871428571428599</v>
+        <v>23.236363636363599</v>
       </c>
       <c r="J64" s="41">
-        <v>20.1619047619048</v>
+        <v>17.616</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
@@ -3424,19 +3424,19 @@
         <v>0.43425925925926001</v>
       </c>
       <c r="F65" s="51">
-        <v>42.757142857142902</v>
+        <v>41.763636363636401</v>
       </c>
       <c r="G65" s="51">
-        <v>57.262068965517301</v>
+        <v>53.996428571428602</v>
       </c>
       <c r="H65" s="51">
-        <v>25.908333333333299</v>
+        <v>35.723999999999997</v>
       </c>
       <c r="I65" s="51">
-        <v>37.671428571428599</v>
+        <v>36.107407407407401</v>
       </c>
       <c r="J65" s="52">
-        <v>42.122727272727303</v>
+        <v>40.216000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3456,19 +3456,19 @@
         <v>0.34415432098764998</v>
       </c>
       <c r="F66" s="56">
-        <v>29.573949579831901</v>
+        <v>30.038235294117701</v>
       </c>
       <c r="G66" s="56">
-        <v>43.805714285714302</v>
+        <v>37.781609195402297</v>
       </c>
       <c r="H66" s="56">
-        <v>21.912977099236699</v>
+        <v>27.6793333333333</v>
       </c>
       <c r="I66" s="56">
-        <v>27.2545454545455</v>
+        <v>28.301315789473701</v>
       </c>
       <c r="J66" s="57">
-        <v>28.500740740740699</v>
+        <v>28.717647058823498</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
@@ -3488,19 +3488,19 @@
         <v>0.47866666666667002</v>
       </c>
       <c r="F67" s="61">
-        <v>38.1</v>
+        <v>40.6533333333333</v>
       </c>
       <c r="G67" s="61">
-        <v>56.164999999999999</v>
+        <v>53.404761904761898</v>
       </c>
       <c r="H67" s="61">
-        <v>26.9583333333333</v>
+        <v>29.393750000000001</v>
       </c>
       <c r="I67" s="61">
-        <v>39.033333333333303</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="J67" s="62">
-        <v>35.763636363636401</v>
+        <v>37.784210526315803</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
@@ -3520,19 +3520,19 @@
         <v>0.55983333333332996</v>
       </c>
       <c r="F68" s="51">
-        <v>44.25</v>
+        <v>46.214285714285701</v>
       </c>
       <c r="G68" s="51">
-        <v>65.164000000000001</v>
+        <v>62.4</v>
       </c>
       <c r="H68" s="51">
-        <v>33.637500000000003</v>
+        <v>30.995238095238101</v>
       </c>
       <c r="I68" s="51">
-        <v>42.38</v>
+        <v>45.645454545454498</v>
       </c>
       <c r="J68" s="52">
-        <v>39.035294117647098</v>
+        <v>41.060869565217402</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
@@ -3552,19 +3552,19 @@
         <v>0.503</v>
       </c>
       <c r="F69" s="51">
-        <v>38.575000000000003</v>
+        <v>36.566666666666698</v>
       </c>
       <c r="G69" s="51">
-        <v>56.72</v>
+        <v>54.366666666666703</v>
       </c>
       <c r="H69" s="51">
-        <v>29</v>
+        <v>30.65</v>
       </c>
       <c r="I69" s="51">
-        <v>40.024999999999999</v>
+        <v>35.733333333333299</v>
       </c>
       <c r="J69" s="52">
-        <v>25.14</v>
+        <v>20.716666666666701</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
@@ -3584,19 +3584,19 @@
         <v>0.56410000000000005</v>
       </c>
       <c r="F70" s="51">
-        <v>41.3</v>
+        <v>41.75</v>
       </c>
       <c r="G70" s="51">
-        <v>47.51</v>
+        <v>47.963636363636397</v>
       </c>
       <c r="H70" s="51">
-        <v>27.9</v>
+        <v>26.82</v>
       </c>
       <c r="I70" s="51">
-        <v>48.85</v>
+        <v>54.766666666666701</v>
       </c>
       <c r="J70" s="52">
-        <v>36.414285714285697</v>
+        <v>31.211111111111101</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
@@ -3616,19 +3616,19 @@
         <v>0.59199999999999997</v>
       </c>
       <c r="F71" s="51">
-        <v>43.618181818181803</v>
+        <v>40.2615384615385</v>
       </c>
       <c r="G71" s="51">
-        <v>59.4</v>
+        <v>47.946666666666701</v>
       </c>
       <c r="H71" s="51">
-        <v>35.507692307692302</v>
+        <v>32.071428571428598</v>
       </c>
       <c r="I71" s="51">
-        <v>40.2545454545455</v>
+        <v>37.630769230769197</v>
       </c>
       <c r="J71" s="52">
-        <v>36.207692307692298</v>
+        <v>34.2153846153846</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
@@ -3648,19 +3648,19 @@
         <v>0.52875000000000005</v>
       </c>
       <c r="F72" s="51">
-        <v>36.733333333333299</v>
+        <v>41.516666666666701</v>
       </c>
       <c r="G72" s="51">
-        <v>60.1</v>
+        <v>59.75</v>
       </c>
       <c r="H72" s="51">
-        <v>31.3333333333333</v>
+        <v>33.266666666666701</v>
       </c>
       <c r="I72" s="51">
-        <v>45.866666666666703</v>
+        <v>45.585714285714303</v>
       </c>
       <c r="J72" s="52">
-        <v>21.225000000000001</v>
+        <v>26.228571428571399</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
@@ -3680,19 +3680,19 @@
         <v>0.51084615384614995</v>
       </c>
       <c r="F73" s="51">
-        <v>35.36</v>
+        <v>34.584615384615397</v>
       </c>
       <c r="G73" s="51">
-        <v>48.618749999999999</v>
+        <v>42.881250000000001</v>
       </c>
       <c r="H73" s="51">
-        <v>23.7</v>
+        <v>28.8857142857143</v>
       </c>
       <c r="I73" s="51">
-        <v>31.35</v>
+        <v>31.457142857142902</v>
       </c>
       <c r="J73" s="52">
-        <v>39.133333333333297</v>
+        <v>30.286666666666701</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
@@ -3712,19 +3712,19 @@
         <v>0.41299999999999998</v>
       </c>
       <c r="F74" s="51">
-        <v>49.2</v>
+        <v>55.233333333333299</v>
       </c>
       <c r="G74" s="51">
-        <v>72.42</v>
+        <v>82.76</v>
       </c>
       <c r="H74" s="51">
-        <v>17.55</v>
+        <v>23.966666666666701</v>
       </c>
       <c r="I74" s="51">
-        <v>38</v>
+        <v>53.375</v>
       </c>
       <c r="J74" s="52">
-        <v>56.4</v>
+        <v>55.84</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3744,19 +3744,19 @@
         <v>0.49825000000000003</v>
       </c>
       <c r="F75" s="56">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="G75" s="56">
-        <v>38.42</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="H75" s="56">
-        <v>14.55</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="I75" s="56">
-        <v>15.3</v>
+        <v>37.4</v>
       </c>
       <c r="J75" s="57">
-        <v>32.9</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
@@ -3776,19 +3776,19 @@
         <v>0.35489999999999999</v>
       </c>
       <c r="F76" s="61">
-        <v>35.037500000000001</v>
+        <v>37.7222222222222</v>
       </c>
       <c r="G76" s="61">
-        <v>48.83</v>
+        <v>47.18</v>
       </c>
       <c r="H76" s="61">
-        <v>22.85</v>
+        <v>36.955555555555598</v>
       </c>
       <c r="I76" s="61">
-        <v>32.049999999999997</v>
+        <v>33.377777777777801</v>
       </c>
       <c r="J76" s="62">
-        <v>41.262500000000003</v>
+        <v>36.411111111111097</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
@@ -3808,19 +3808,19 @@
         <v>0.39316666666666999</v>
       </c>
       <c r="F77" s="51">
-        <v>25.262499999999999</v>
+        <v>21.41</v>
       </c>
       <c r="G77" s="51">
-        <v>31.554545454545501</v>
+        <v>22.766666666666701</v>
       </c>
       <c r="H77" s="51">
-        <v>17.912500000000001</v>
+        <v>25.5416666666667</v>
       </c>
       <c r="I77" s="51">
-        <v>26.77</v>
+        <v>24.25</v>
       </c>
       <c r="J77" s="52">
-        <v>17.61</v>
+        <v>16.116666666666699</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
@@ -3840,19 +3840,19 @@
         <v>0.10677777777778</v>
       </c>
       <c r="F78" s="51">
-        <v>16.669230769230801</v>
+        <v>14.596</v>
       </c>
       <c r="G78" s="51">
-        <v>24.9185185185185</v>
+        <v>12.9444444444444</v>
       </c>
       <c r="H78" s="51">
-        <v>11.9884615384615</v>
+        <v>19.271999999999998</v>
       </c>
       <c r="I78" s="51">
-        <v>10.7</v>
+        <v>7.75555555555556</v>
       </c>
       <c r="J78" s="52">
-        <v>17.3037037037037</v>
+        <v>18.281481481481499</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3872,19 +3872,19 @@
         <v>0.12189473684211</v>
       </c>
       <c r="F79" s="56">
-        <v>17.54</v>
+        <v>16.466666666666701</v>
       </c>
       <c r="G79" s="56">
-        <v>25.678947368421099</v>
+        <v>13.634210526315799</v>
       </c>
       <c r="H79" s="56">
-        <v>12.911428571428599</v>
+        <v>18.961111111111101</v>
       </c>
       <c r="I79" s="56">
-        <v>13.821621621621601</v>
+        <v>13.2947368421053</v>
       </c>
       <c r="J79" s="57">
-        <v>17.1605263157895</v>
+        <v>18.436842105263199</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
@@ -3904,19 +3904,19 @@
         <v>0.50662499999999999</v>
       </c>
       <c r="F80" s="61">
-        <v>43.8333333333333</v>
+        <v>43.14</v>
       </c>
       <c r="G80" s="61">
-        <v>56.06</v>
+        <v>54</v>
       </c>
       <c r="H80" s="61">
-        <v>27.983333333333299</v>
+        <v>27.985714285714302</v>
       </c>
       <c r="I80" s="61">
-        <v>47.5</v>
+        <v>55.457142857142898</v>
       </c>
       <c r="J80" s="62">
-        <v>46.4166666666667</v>
+        <v>42.0625</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
@@ -3936,19 +3936,19 @@
         <v>0.35285</v>
       </c>
       <c r="F81" s="51">
-        <v>35.766666666666701</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="G81" s="51">
-        <v>58.280952380952399</v>
+        <v>56.8</v>
       </c>
       <c r="H81" s="51">
-        <v>26.18</v>
+        <v>36.992857142857098</v>
       </c>
       <c r="I81" s="51">
-        <v>31.8</v>
+        <v>32.282352941176498</v>
       </c>
       <c r="J81" s="52">
-        <v>34.700000000000003</v>
+        <v>39.340000000000003</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
@@ -3968,19 +3968,19 @@
         <v>0.53739999999999999</v>
       </c>
       <c r="F82" s="51">
-        <v>39.957142857142898</v>
+        <v>40.267567567567603</v>
       </c>
       <c r="G82" s="51">
-        <v>55.923255813953503</v>
+        <v>52.0772727272727</v>
       </c>
       <c r="H82" s="51">
-        <v>29.128125000000001</v>
+        <v>29.912820512820499</v>
       </c>
       <c r="I82" s="51">
-        <v>38.448387096774198</v>
+        <v>38.651282051282102</v>
       </c>
       <c r="J82" s="52">
-        <v>36.560606060606098</v>
+        <v>33.102499999999999</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4000,19 +4000,19 @@
         <v>0.26094949494948999</v>
       </c>
       <c r="F83" s="56">
-        <v>24.646835443038</v>
+        <v>23.845238095238098</v>
       </c>
       <c r="G83" s="56">
-        <v>34.423762376237597</v>
+        <v>25.755555555555599</v>
       </c>
       <c r="H83" s="56">
-        <v>18.178313253012</v>
+        <v>25.238888888888901</v>
       </c>
       <c r="I83" s="56">
-        <v>21.4559523809524</v>
+        <v>20.869662921348301</v>
       </c>
       <c r="J83" s="57">
-        <v>23.304705882352899</v>
+        <v>23.8122222222222</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
@@ -4032,19 +4032,19 @@
         <v>0.58729411764705997</v>
       </c>
       <c r="F84" s="61">
-        <v>41.566666666666698</v>
+        <v>41.242857142857098</v>
       </c>
       <c r="G84" s="61">
-        <v>58.777272727272702</v>
+        <v>52.043478260869598</v>
       </c>
       <c r="H84" s="61">
-        <v>33.864705882353</v>
+        <v>32.3857142857143</v>
       </c>
       <c r="I84" s="61">
-        <v>39.200000000000003</v>
+        <v>44.423809523809503</v>
       </c>
       <c r="J84" s="62">
-        <v>36.905555555555601</v>
+        <v>31.0571428571429</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
@@ -4063,20 +4063,20 @@
       <c r="E85" s="50">
         <v>0.64400000000000002</v>
       </c>
-      <c r="F85" s="51">
-        <v>58.4</v>
+      <c r="F85" s="51" t="s">
+        <v>17</v>
       </c>
       <c r="G85" s="51">
-        <v>85.7</v>
-      </c>
-      <c r="H85" s="51">
-        <v>38.75</v>
+        <v>86.3</v>
+      </c>
+      <c r="H85" s="51" t="s">
+        <v>17</v>
       </c>
       <c r="I85" s="51">
-        <v>44.4</v>
+        <v>51.55</v>
       </c>
       <c r="J85" s="52">
-        <v>56.95</v>
+        <v>70.25</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
@@ -4096,19 +4096,19 @@
         <v>0.52215</v>
       </c>
       <c r="F86" s="51">
-        <v>41.323076923076897</v>
+        <v>42.323529411764703</v>
       </c>
       <c r="G86" s="51">
-        <v>57.291304347826099</v>
+        <v>54.595652173913102</v>
       </c>
       <c r="H86" s="51">
-        <v>24.8117647058824</v>
+        <v>27.085000000000001</v>
       </c>
       <c r="I86" s="51">
-        <v>42.9</v>
+        <v>42.89</v>
       </c>
       <c r="J86" s="52">
-        <v>40.368749999999999</v>
+        <v>39.052380952381</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
@@ -4128,19 +4128,19 @@
         <v>0.43180769230769001</v>
       </c>
       <c r="F87" s="51">
-        <v>34.504761904761899</v>
+        <v>34.547826086956498</v>
       </c>
       <c r="G87" s="51">
-        <v>44.303571428571402</v>
+        <v>40.103571428571399</v>
       </c>
       <c r="H87" s="51">
-        <v>25.164000000000001</v>
+        <v>33.077777777777797</v>
       </c>
       <c r="I87" s="51">
-        <v>32.485714285714302</v>
+        <v>32.076000000000001</v>
       </c>
       <c r="J87" s="52">
-        <v>32.686363636363602</v>
+        <v>30.487500000000001</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
@@ -4160,19 +4160,19 @@
         <v>0.40583333333332999</v>
       </c>
       <c r="F88" s="51">
-        <v>29.866666666666699</v>
+        <v>30</v>
       </c>
       <c r="G88" s="51">
-        <v>44.828571428571401</v>
+        <v>52.871428571428602</v>
       </c>
       <c r="H88" s="51">
-        <v>25.625</v>
+        <v>28.14</v>
       </c>
       <c r="I88" s="51">
-        <v>30.08</v>
+        <v>20.98</v>
       </c>
       <c r="J88" s="52">
-        <v>34.96</v>
+        <v>31.383333333333301</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
@@ -4192,19 +4192,19 @@
         <v>0.31969999999999998</v>
       </c>
       <c r="F89" s="51">
-        <v>27.4607142857143</v>
+        <v>25.854838709677399</v>
       </c>
       <c r="G89" s="51">
-        <v>37.555</v>
+        <v>27.6897435897436</v>
       </c>
       <c r="H89" s="51">
-        <v>19.851724137931001</v>
+        <v>28.3189189189189</v>
       </c>
       <c r="I89" s="51">
-        <v>24.354838709677399</v>
+        <v>23.240625000000001</v>
       </c>
       <c r="J89" s="52">
-        <v>24.103225806451601</v>
+        <v>22.520588235294099</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4224,19 +4224,19 @@
         <v>0.1319387755102</v>
       </c>
       <c r="F90" s="56">
-        <v>17.8027027027027</v>
+        <v>19.664102564102599</v>
       </c>
       <c r="G90" s="56">
-        <v>33.2960784313725</v>
+        <v>26.786274509803899</v>
       </c>
       <c r="H90" s="56">
-        <v>13.1972972972973</v>
+        <v>21.087179487179501</v>
       </c>
       <c r="I90" s="56">
-        <v>16.119047619047599</v>
+        <v>15.941304347826099</v>
       </c>
       <c r="J90" s="57">
-        <v>19.195</v>
+        <v>24.7886363636364</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
@@ -4256,19 +4256,19 @@
         <v>0.57935999999999999</v>
       </c>
       <c r="F91" s="61">
-        <v>40.965000000000003</v>
+        <v>41.7206896551724</v>
       </c>
       <c r="G91" s="61">
-        <v>58.493749999999999</v>
+        <v>53.372727272727303</v>
       </c>
       <c r="H91" s="61">
-        <v>31.571999999999999</v>
+        <v>30.746666666666702</v>
       </c>
       <c r="I91" s="61">
-        <v>37.524999999999999</v>
+        <v>44.023333333333298</v>
       </c>
       <c r="J91" s="62">
-        <v>37</v>
+        <v>31.706666666666699</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
@@ -4288,19 +4288,19 @@
         <v>0.54522222222222005</v>
       </c>
       <c r="F92" s="51">
-        <v>43.225000000000001</v>
+        <v>35.9</v>
       </c>
       <c r="G92" s="51">
-        <v>52.681818181818201</v>
+        <v>47.4</v>
       </c>
       <c r="H92" s="51">
-        <v>28.990909090909099</v>
+        <v>31.5</v>
       </c>
       <c r="I92" s="51">
-        <v>35.112499999999997</v>
+        <v>32.855555555555597</v>
       </c>
       <c r="J92" s="52">
-        <v>48.1875</v>
+        <v>41.55</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
@@ -4319,20 +4319,20 @@
       <c r="E93" s="50">
         <v>0.42699999999999999</v>
       </c>
-      <c r="F93" s="51" t="s">
-        <v>13</v>
+      <c r="F93" s="51">
+        <v>55</v>
       </c>
       <c r="G93" s="51">
-        <v>47.866666666666703</v>
+        <v>33.133333333333297</v>
       </c>
       <c r="H93" s="51">
-        <v>17.3</v>
+        <v>20.6</v>
       </c>
       <c r="I93" s="51">
-        <v>19.2</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="J93" s="52">
-        <v>40.700000000000003</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
@@ -4352,19 +4352,19 @@
         <v>0.38200000000000001</v>
       </c>
       <c r="F94" s="51">
-        <v>26.66</v>
+        <v>28.466666666666701</v>
       </c>
       <c r="G94" s="51">
-        <v>37.865000000000002</v>
+        <v>34.719047619047601</v>
       </c>
       <c r="H94" s="51">
-        <v>28.7444444444445</v>
+        <v>33.746666666666698</v>
       </c>
       <c r="I94" s="51">
-        <v>16.98</v>
+        <v>26.9</v>
       </c>
       <c r="J94" s="52">
-        <v>34.18</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
@@ -4384,19 +4384,19 @@
         <v>0.56473333333332998</v>
       </c>
       <c r="F95" s="51">
-        <v>37.8363636363636</v>
+        <v>36.766666666666701</v>
       </c>
       <c r="G95" s="51">
-        <v>50.64</v>
+        <v>47.75</v>
       </c>
       <c r="H95" s="51">
-        <v>29.816666666666698</v>
+        <v>30.018750000000001</v>
       </c>
       <c r="I95" s="51">
-        <v>39.3333333333333</v>
+        <v>41.0133333333333</v>
       </c>
       <c r="J95" s="52">
-        <v>33.25</v>
+        <v>26.756250000000001</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4416,19 +4416,19 @@
         <v>0.34986666666666999</v>
       </c>
       <c r="F96" s="56">
-        <v>27.9538461538462</v>
+        <v>25.2846153846154</v>
       </c>
       <c r="G96" s="56">
-        <v>36.912500000000001</v>
+        <v>26.233333333333299</v>
       </c>
       <c r="H96" s="56">
-        <v>21.6428571428571</v>
+        <v>27.957142857142902</v>
       </c>
       <c r="I96" s="56">
-        <v>28.276923076923101</v>
+        <v>23.1428571428571</v>
       </c>
       <c r="J96" s="57">
-        <v>23.435714285714301</v>
+        <v>24.3071428571429</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
@@ -4448,19 +4448,19 @@
         <v>0.57285185185184995</v>
       </c>
       <c r="F97" s="61">
-        <v>42</v>
+        <v>41.893333333333302</v>
       </c>
       <c r="G97" s="61">
-        <v>58.586111111111101</v>
+        <v>55.954054054054097</v>
       </c>
       <c r="H97" s="61">
-        <v>32.342307692307699</v>
+        <v>32.103124999999999</v>
       </c>
       <c r="I97" s="61">
-        <v>42.595238095238102</v>
+        <v>45.290624999999999</v>
       </c>
       <c r="J97" s="62">
-        <v>37.376923076923099</v>
+        <v>33.902941176470598</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4480,19 +4480,19 @@
         <v>0.52576470588235003</v>
       </c>
       <c r="F98" s="56">
-        <v>41.592857142857099</v>
+        <v>38.861538461538501</v>
       </c>
       <c r="G98" s="56">
-        <v>56.711111111111101</v>
+        <v>51.3764705882353</v>
       </c>
       <c r="H98" s="56">
-        <v>29.34</v>
+        <v>36.76</v>
       </c>
       <c r="I98" s="56">
-        <v>31.233333333333299</v>
+        <v>38.713333333333303</v>
       </c>
       <c r="J98" s="57">
-        <v>41.973333333333301</v>
+        <v>38.853333333333303</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
@@ -4692,11 +4692,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{6EAD3001-E9B9-4BF8-A5F9-2652B2D342E6}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{0F92B533-AF3A-48F8-B923-709221DDEED9}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{15CE3AB1-351D-4B57-9369-0659AD8E5F28}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{E7EFB644-D4DC-44D6-9524-2BBF5D0FB3AB}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{81E1EA0A-3363-46D0-8935-A3B586D9D1BE}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{82D829F4-C715-43A3-8832-154F8AFC5EC0}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{D55526BF-8C95-4C7F-8510-993A0DF5B80F}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{01E20906-4896-4ADF-9801-E2091628AB95}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{5C7FFD15-8E2A-4F7D-AD80-9FAFA970669C}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{2AEE2AD1-F90D-41C4-8523-4E525379D9C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab10.xlsx
+++ b/AfDD_2023_Annex_Table_Tab10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AD906E0-0422-407A-BBAB-1D91AFC9DD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BCD3F4D-1629-40A3-9528-BF55B1564A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB675E30-DA67-4DB1-A26D-7D8F856877D2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{85E3F816-FDFD-4F72-B27D-D8E8A1A229DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab10'!$A$2:$J$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab10'!$A$1:$I$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -261,7 +261,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -393,7 +393,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -1363,7 +1363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0910DCA8-48A2-4F05-BFEC-A7E5A0900641}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A8876E-B9FF-4C5B-9BF0-420B59702A12}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2419,31 +2419,31 @@
       <c r="A34" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="31">
         <v>0.433</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="31">
         <v>0.84199999999999997</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="17">
+      <c r="E34" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="33">
         <v>38.4</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="33">
         <v>60.5</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="33">
         <v>37.6</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="33">
         <v>33.1</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="34">
         <v>17.8</v>
       </c>
     </row>
@@ -3155,31 +3155,31 @@
       <c r="A57" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="31">
+      <c r="C57" s="20">
         <v>0.53900000000000003</v>
       </c>
-      <c r="D57" s="31">
+      <c r="D57" s="20">
         <v>0.88100000000000001</v>
       </c>
-      <c r="E57" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" s="33">
+      <c r="E57" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="22">
         <v>42.9</v>
       </c>
-      <c r="G57" s="33">
+      <c r="G57" s="22">
         <v>56.5</v>
       </c>
-      <c r="H57" s="33">
+      <c r="H57" s="22">
         <v>28.5</v>
       </c>
-      <c r="I57" s="33">
+      <c r="I57" s="22">
         <v>36.4</v>
       </c>
-      <c r="J57" s="34">
+      <c r="J57" s="23">
         <v>48</v>
       </c>
     </row>
@@ -3543,28 +3543,28 @@
         <v>133</v>
       </c>
       <c r="C69" s="49">
-        <v>0.51383333333333003</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="D69" s="49">
-        <v>0.92233333333333001</v>
+        <v>0.91128571428571004</v>
       </c>
       <c r="E69" s="50">
-        <v>0.503</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="F69" s="51">
-        <v>36.566666666666698</v>
+        <v>38.071428571428598</v>
       </c>
       <c r="G69" s="51">
-        <v>54.366666666666703</v>
+        <v>54.1</v>
       </c>
       <c r="H69" s="51">
-        <v>30.65</v>
+        <v>30.8857142857143</v>
       </c>
       <c r="I69" s="51">
-        <v>35.733333333333299</v>
+        <v>39.9428571428571</v>
       </c>
       <c r="J69" s="52">
-        <v>20.716666666666701</v>
+        <v>22.714285714285701</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
@@ -3799,28 +3799,28 @@
         <v>141</v>
       </c>
       <c r="C77" s="49">
-        <v>0.76316666666666999</v>
+        <v>0.76790909090908999</v>
       </c>
       <c r="D77" s="49">
-        <v>0.97866666666667002</v>
+        <v>0.97590909090908995</v>
       </c>
       <c r="E77" s="50">
-        <v>0.39316666666666999</v>
+        <v>0.38536363636364002</v>
       </c>
       <c r="F77" s="51">
-        <v>21.41</v>
+        <v>21.9444444444444</v>
       </c>
       <c r="G77" s="51">
-        <v>22.766666666666701</v>
+        <v>23.954545454545499</v>
       </c>
       <c r="H77" s="51">
-        <v>25.5416666666667</v>
+        <v>25.490909090909099</v>
       </c>
       <c r="I77" s="51">
-        <v>24.25</v>
+        <v>24.255555555555599</v>
       </c>
       <c r="J77" s="52">
-        <v>16.116666666666699</v>
+        <v>17.1636363636364</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
@@ -3895,28 +3895,28 @@
         <v>144</v>
       </c>
       <c r="C80" s="59">
-        <v>0.60699999999999998</v>
+        <v>0.59640000000000004</v>
       </c>
       <c r="D80" s="59">
-        <v>0.89611111111110997</v>
+        <v>0.89177777777778</v>
       </c>
       <c r="E80" s="60">
         <v>0.50662499999999999</v>
       </c>
       <c r="F80" s="61">
-        <v>43.14</v>
+        <v>42.24</v>
       </c>
       <c r="G80" s="61">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="H80" s="61">
-        <v>27.985714285714302</v>
+        <v>29.285714285714299</v>
       </c>
       <c r="I80" s="61">
-        <v>55.457142857142898</v>
+        <v>54.985714285714302</v>
       </c>
       <c r="J80" s="62">
-        <v>42.0625</v>
+        <v>38.287500000000001</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
@@ -3959,28 +3959,28 @@
         <v>146</v>
       </c>
       <c r="C82" s="49">
-        <v>0.54997674418605003</v>
+        <v>0.55244186046512</v>
       </c>
       <c r="D82" s="49">
-        <v>0.89715384615384997</v>
+        <v>0.89815384615384997</v>
       </c>
       <c r="E82" s="50">
         <v>0.53739999999999999</v>
       </c>
       <c r="F82" s="51">
-        <v>40.267567567567603</v>
+        <v>40.389189189189203</v>
       </c>
       <c r="G82" s="51">
-        <v>52.0772727272727</v>
+        <v>51.986363636363699</v>
       </c>
       <c r="H82" s="51">
-        <v>29.912820512820499</v>
+        <v>29.6794871794872</v>
       </c>
       <c r="I82" s="51">
-        <v>38.651282051282102</v>
+        <v>38.7358974358974</v>
       </c>
       <c r="J82" s="52">
-        <v>33.102499999999999</v>
+        <v>33.857500000000002</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4023,28 +4023,28 @@
         <v>148</v>
       </c>
       <c r="C84" s="59">
-        <v>0.46949999999999997</v>
+        <v>0.47447826086957001</v>
       </c>
       <c r="D84" s="59">
-        <v>0.86385000000000001</v>
+        <v>0.86833333333332996</v>
       </c>
       <c r="E84" s="60">
-        <v>0.58729411764705997</v>
+        <v>0.58461111111110997</v>
       </c>
       <c r="F84" s="61">
-        <v>41.242857142857098</v>
+        <v>40.75</v>
       </c>
       <c r="G84" s="61">
-        <v>52.043478260869598</v>
+        <v>51.2916666666667</v>
       </c>
       <c r="H84" s="61">
-        <v>32.3857142857143</v>
+        <v>32.122727272727303</v>
       </c>
       <c r="I84" s="61">
-        <v>44.423809523809503</v>
+        <v>43.886363636363697</v>
       </c>
       <c r="J84" s="62">
-        <v>31.0571428571429</v>
+        <v>30.927272727272701</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
@@ -4087,28 +4087,28 @@
         <v>150</v>
       </c>
       <c r="C86" s="49">
-        <v>0.59482608695651995</v>
+        <v>0.59531818181817997</v>
       </c>
       <c r="D86" s="49">
-        <v>0.90536363636364003</v>
+        <v>0.90285714285714003</v>
       </c>
       <c r="E86" s="50">
-        <v>0.52215</v>
+        <v>0.52126315789473998</v>
       </c>
       <c r="F86" s="51">
-        <v>42.323529411764703</v>
+        <v>43.068750000000001</v>
       </c>
       <c r="G86" s="51">
-        <v>54.595652173913102</v>
+        <v>55.531818181818203</v>
       </c>
       <c r="H86" s="51">
-        <v>27.085000000000001</v>
+        <v>27.1105263157895</v>
       </c>
       <c r="I86" s="51">
-        <v>42.89</v>
+        <v>43.431578947368401</v>
       </c>
       <c r="J86" s="52">
-        <v>39.052380952381</v>
+        <v>39.594999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
@@ -4119,28 +4119,28 @@
         <v>151</v>
       </c>
       <c r="C87" s="49">
-        <v>0.65803225806452004</v>
+        <v>0.65893548387097001</v>
       </c>
       <c r="D87" s="49">
-        <v>0.93344000000000005</v>
+        <v>0.93008000000000002</v>
       </c>
       <c r="E87" s="50">
-        <v>0.43180769230769001</v>
+        <v>0.43165384615385</v>
       </c>
       <c r="F87" s="51">
-        <v>34.547826086956498</v>
+        <v>36.243478260869601</v>
       </c>
       <c r="G87" s="51">
-        <v>40.103571428571399</v>
+        <v>42.907142857142901</v>
       </c>
       <c r="H87" s="51">
-        <v>33.077777777777797</v>
+        <v>33.648148148148202</v>
       </c>
       <c r="I87" s="51">
-        <v>32.076000000000001</v>
+        <v>32.880000000000003</v>
       </c>
       <c r="J87" s="52">
-        <v>30.487500000000001</v>
+        <v>31.866666666666699</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
@@ -4183,28 +4183,28 @@
         <v>153</v>
       </c>
       <c r="C89" s="49">
-        <v>0.76788888888888995</v>
+        <v>0.76613636363635995</v>
       </c>
       <c r="D89" s="49">
-        <v>0.96432499999999999</v>
+        <v>0.96439473684210997</v>
       </c>
       <c r="E89" s="50">
-        <v>0.31969999999999998</v>
+        <v>0.31865789473683998</v>
       </c>
       <c r="F89" s="51">
-        <v>25.854838709677399</v>
+        <v>25.196551724137901</v>
       </c>
       <c r="G89" s="51">
-        <v>27.6897435897436</v>
+        <v>26.610810810810801</v>
       </c>
       <c r="H89" s="51">
-        <v>28.3189189189189</v>
+        <v>28.1514285714286</v>
       </c>
       <c r="I89" s="51">
-        <v>23.240625000000001</v>
+        <v>23.163333333333298</v>
       </c>
       <c r="J89" s="52">
-        <v>22.520588235294099</v>
+        <v>21.875</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4215,28 +4215,28 @@
         <v>154</v>
       </c>
       <c r="C90" s="54">
-        <v>0.88627272727272999</v>
+        <v>0.88503571428571004</v>
       </c>
       <c r="D90" s="54">
-        <v>0.97964583333333</v>
+        <v>0.98065999999999998</v>
       </c>
       <c r="E90" s="55">
-        <v>0.1319387755102</v>
+        <v>0.1401568627451</v>
       </c>
       <c r="F90" s="56">
-        <v>19.664102564102599</v>
+        <v>19.480487804878099</v>
       </c>
       <c r="G90" s="56">
-        <v>26.786274509803899</v>
+        <v>26.092452830188702</v>
       </c>
       <c r="H90" s="56">
-        <v>21.087179487179501</v>
+        <v>21.207317073170699</v>
       </c>
       <c r="I90" s="56">
-        <v>15.941304347826099</v>
+        <v>15.875</v>
       </c>
       <c r="J90" s="57">
-        <v>24.7886363636364</v>
+        <v>24.419565217391298</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
@@ -4343,28 +4343,28 @@
         <v>158</v>
       </c>
       <c r="C94" s="49">
-        <v>0.72493333333332999</v>
+        <v>0.72055172413793001</v>
       </c>
       <c r="D94" s="49">
-        <v>0.96356249999999999</v>
+        <v>0.96633333333333005</v>
       </c>
       <c r="E94" s="50">
-        <v>0.38200000000000001</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="F94" s="51">
         <v>28.466666666666701</v>
       </c>
       <c r="G94" s="51">
-        <v>34.719047619047601</v>
+        <v>32.005000000000003</v>
       </c>
       <c r="H94" s="51">
         <v>33.746666666666698</v>
       </c>
       <c r="I94" s="51">
-        <v>26.9</v>
+        <v>24.887499999999999</v>
       </c>
       <c r="J94" s="52">
-        <v>29.52</v>
+        <v>26.422222222222199</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
@@ -4439,28 +4439,28 @@
         <v>161</v>
       </c>
       <c r="C97" s="59">
-        <v>0.51280555555555996</v>
+        <v>0.51367567567567995</v>
       </c>
       <c r="D97" s="59">
-        <v>0.88278124999999996</v>
+        <v>0.88193939393939003</v>
       </c>
       <c r="E97" s="60">
-        <v>0.57285185185184995</v>
+        <v>0.57425000000000004</v>
       </c>
       <c r="F97" s="61">
-        <v>41.893333333333302</v>
+        <v>41.6645161290323</v>
       </c>
       <c r="G97" s="61">
-        <v>55.954054054054097</v>
+        <v>55.065789473684198</v>
       </c>
       <c r="H97" s="61">
-        <v>32.103124999999999</v>
+        <v>31.569696969696999</v>
       </c>
       <c r="I97" s="61">
-        <v>45.290624999999999</v>
+        <v>45.103030303030302</v>
       </c>
       <c r="J97" s="62">
-        <v>33.902941176470598</v>
+        <v>34.5828571428572</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4471,10 +4471,10 @@
         <v>162</v>
       </c>
       <c r="C98" s="54">
-        <v>0.60844444444444001</v>
+        <v>0.61365000000000003</v>
       </c>
       <c r="D98" s="54">
-        <v>0.85668750000000005</v>
+        <v>0.86170588235293999</v>
       </c>
       <c r="E98" s="55">
         <v>0.52576470588235003</v>
@@ -4483,13 +4483,13 @@
         <v>38.861538461538501</v>
       </c>
       <c r="G98" s="56">
-        <v>51.3764705882353</v>
+        <v>48.984210526315799</v>
       </c>
       <c r="H98" s="56">
-        <v>36.76</v>
+        <v>35.941176470588204</v>
       </c>
       <c r="I98" s="56">
-        <v>38.713333333333303</v>
+        <v>37.581249999999997</v>
       </c>
       <c r="J98" s="57">
         <v>38.853333333333303</v>
@@ -4692,11 +4692,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{82D829F4-C715-43A3-8832-154F8AFC5EC0}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{D55526BF-8C95-4C7F-8510-993A0DF5B80F}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{01E20906-4896-4ADF-9801-E2091628AB95}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{5C7FFD15-8E2A-4F7D-AD80-9FAFA970669C}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{2AEE2AD1-F90D-41C4-8523-4E525379D9C4}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{365D17B7-CD20-4B9A-9BDA-EA780F170225}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{84F0312A-F5DD-481B-AC0B-3EC88DF16B9D}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{5B192C20-FB1A-459E-BAF9-1D89E9349C46}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{C1CCE2D7-DB0E-4914-873B-7FCA55B371FD}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{63D8A617-EF88-401E-8C4B-28D0583AA906}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab10.xlsx
+++ b/AfDD_2023_Annex_Table_Tab10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BCD3F4D-1629-40A3-9528-BF55B1564A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23A8C886-F9A5-481D-B744-3FFD63C27E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{85E3F816-FDFD-4F72-B27D-D8E8A1A229DD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{11E651B4-4351-4121-AAEB-686C6897C34E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -1363,7 +1363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A8876E-B9FF-4C5B-9BF0-420B59702A12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DFFDBC-FC3F-4688-B1F9-664955F85BF8}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4692,11 +4692,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{365D17B7-CD20-4B9A-9BDA-EA780F170225}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{84F0312A-F5DD-481B-AC0B-3EC88DF16B9D}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{5B192C20-FB1A-459E-BAF9-1D89E9349C46}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{C1CCE2D7-DB0E-4914-873B-7FCA55B371FD}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{63D8A617-EF88-401E-8C4B-28D0583AA906}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3B544A58-A160-4F86-A894-DB53807CBB98}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{B339E0CF-4026-4935-8284-B2021141F595}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{BA608132-4BA8-4D34-8E5A-9B3D074A3897}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{02405466-D1C7-48CE-914D-AEDD0A57D642}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{AB846BA1-1C6B-40AB-8FE6-B5BFC17AFA4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab10.xlsx
+++ b/AfDD_2023_Annex_Table_Tab10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23A8C886-F9A5-481D-B744-3FFD63C27E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A679528B-FDD5-4392-835E-9F8C09824873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{11E651B4-4351-4121-AAEB-686C6897C34E}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{7B525D56-3A52-4F76-AB6F-02FC8052A2F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: United Nations Development Programme Human Development Data Online (2021 edition), Social Institutions and Gender Index, OECD Development Centre (updated with new methodology December 2018).</t>
@@ -1363,7 +1363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DFFDBC-FC3F-4688-B1F9-664955F85BF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBADD9B-0B51-49A1-91DB-394ED2D0A40F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3529,7 +3529,7 @@
         <v>30.995238095238101</v>
       </c>
       <c r="I68" s="51">
-        <v>45.645454545454498</v>
+        <v>45.645454545454598</v>
       </c>
       <c r="J68" s="52">
         <v>41.060869565217402</v>
@@ -4439,28 +4439,28 @@
         <v>161</v>
       </c>
       <c r="C97" s="59">
-        <v>0.51367567567567995</v>
+        <v>0.52607142857142997</v>
       </c>
       <c r="D97" s="59">
-        <v>0.88193939393939003</v>
+        <v>0.88707692307691999</v>
       </c>
       <c r="E97" s="60">
-        <v>0.57425000000000004</v>
+        <v>0.56604545454544997</v>
       </c>
       <c r="F97" s="61">
-        <v>41.6645161290323</v>
+        <v>39.829166666666701</v>
       </c>
       <c r="G97" s="61">
-        <v>55.065789473684198</v>
+        <v>52.839285714285701</v>
       </c>
       <c r="H97" s="61">
-        <v>31.569696969696999</v>
+        <v>31.02</v>
       </c>
       <c r="I97" s="61">
-        <v>45.103030303030302</v>
+        <v>41.588000000000001</v>
       </c>
       <c r="J97" s="62">
-        <v>34.5828571428572</v>
+        <v>34.570370370370398</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4471,28 +4471,28 @@
         <v>162</v>
       </c>
       <c r="C98" s="54">
-        <v>0.61365000000000003</v>
+        <v>0.63606666666667</v>
       </c>
       <c r="D98" s="54">
-        <v>0.86170588235293999</v>
+        <v>0.91858333333332998</v>
       </c>
       <c r="E98" s="55">
-        <v>0.52576470588235003</v>
+        <v>0.48275000000000001</v>
       </c>
       <c r="F98" s="56">
-        <v>38.861538461538501</v>
+        <v>36.036363636363603</v>
       </c>
       <c r="G98" s="56">
-        <v>48.984210526315799</v>
+        <v>41.4</v>
       </c>
       <c r="H98" s="56">
-        <v>35.941176470588204</v>
+        <v>34.613333333333301</v>
       </c>
       <c r="I98" s="56">
-        <v>37.581249999999997</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="J98" s="57">
-        <v>38.853333333333303</v>
+        <v>29.072727272727299</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
@@ -4692,11 +4692,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3B544A58-A160-4F86-A894-DB53807CBB98}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{B339E0CF-4026-4935-8284-B2021141F595}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{BA608132-4BA8-4D34-8E5A-9B3D074A3897}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{02405466-D1C7-48CE-914D-AEDD0A57D642}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{AB846BA1-1C6B-40AB-8FE6-B5BFC17AFA4F}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{5B70D7C5-738D-454F-A30B-A24F20617DA7}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{E633E8F5-1BF6-4EDB-87C7-69F5681B60DD}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{96A499B4-D74E-416D-87C6-F7CF7DB6E8D2}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{853C8067-47EB-4620-8188-A1F719FB7DB7}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{5EA39E0F-65C8-4992-B6BA-63082135ACBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab10.xlsx
+++ b/AfDD_2023_Annex_Table_Tab10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A679528B-FDD5-4392-835E-9F8C09824873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50777D60-95F8-4621-BC4F-2A4F23043C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{7B525D56-3A52-4F76-AB6F-02FC8052A2F3}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{42BA35AD-D764-4AF8-82F8-838DC1DC9EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="174">
   <si>
     <t>Table 10: Gender indicators</t>
   </si>
@@ -546,16 +546,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBADD9B-0B51-49A1-91DB-394ED2D0A40F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8F8C67-9230-42EA-BBDE-F089CB8BFEF4}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4618,7 +4621,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C109" s="66"/>
       <c r="D109" s="66"/>
@@ -4631,7 +4634,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C110" s="66"/>
       <c r="D110" s="66"/>
@@ -4643,7 +4646,9 @@
       <c r="J110" s="66"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="C111" s="66"/>
       <c r="D111" s="66"/>
       <c r="E111" s="66"/>
@@ -4655,7 +4660,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C112" s="66"/>
       <c r="D112" s="66"/>
@@ -4668,7 +4673,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C113" s="66"/>
       <c r="D113" s="66"/>
@@ -4692,13 +4697,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{5B70D7C5-738D-454F-A30B-A24F20617DA7}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{E633E8F5-1BF6-4EDB-87C7-69F5681B60DD}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{96A499B4-D74E-416D-87C6-F7CF7DB6E8D2}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{853C8067-47EB-4620-8188-A1F719FB7DB7}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{5EA39E0F-65C8-4992-B6BA-63082135ACBD}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{83D0B38F-CDFD-448D-AC0A-8B421B5921B3}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{402C8A47-942F-460D-8E14-DFAFF3BC7C6B}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{524562F7-E0CD-4262-A0A3-5D9651263497}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{871CBFEF-25F0-4F88-93C1-C07AED79954F}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{D004BC4C-7EEF-49C8-B58E-4CDFA4D89150}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{E2B153EA-E56C-4138-B243-BF083E9F678B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab10.xlsx
+++ b/AfDD_2023_Annex_Table_Tab10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50777D60-95F8-4621-BC4F-2A4F23043C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B98E5DA9-7B83-4121-B5B4-6E4D29C81309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{42BA35AD-D764-4AF8-82F8-838DC1DC9EDB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{C46A036C-6754-4174-AE42-F4278CA7EA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab10'!$A$2:$J$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab10'!$A$1:$I$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1366,7 +1366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8F8C67-9230-42EA-BBDE-F089CB8BFEF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C97AAC-FA30-436E-B1CA-C00884FFB710}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1374,14 +1374,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.36328125" style="68" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.33203125" style="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1394,7 +1394,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>32</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>23.61</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>34</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>36</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>38</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>40</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>46</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>48</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>50</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>32</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>37.757142857142902</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>53</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>55</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>57</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>61</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>63</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>65</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>67</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>69</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>71</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>73</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>75</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>77</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>79</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>32</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>31.1666666666667</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>82</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>84</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>86</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>72.3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>88</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>90</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>92</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>46.9</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="24" t="s">
         <v>32</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>95</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>97</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>99</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>101</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>103</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>105</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>107</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>109</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>111</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>113</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>115</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>117</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>119</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>121</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>123</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="24" t="s">
         <v>32</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>34.2153846153846</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="36" t="s">
         <v>32</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>34.595833333333303</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="36" t="s">
         <v>32</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>26.0304761904762</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="47" t="s">
         <v>32</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>17.616</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="47" t="s">
         <v>32</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>40.216000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="47" t="s">
         <v>32</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>28.717647058823498</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="47" t="s">
         <v>32</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>37.784210526315803</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="47" t="s">
         <v>32</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>41.060869565217402</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="47" t="s">
         <v>32</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>22.714285714285701</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="47" t="s">
         <v>32</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>31.211111111111101</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="47" t="s">
         <v>32</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>34.2153846153846</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="47" t="s">
         <v>32</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>26.228571428571399</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="47" t="s">
         <v>32</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>30.286666666666701</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="47" t="s">
         <v>32</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>55.84</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="47" t="s">
         <v>32</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="47" t="s">
         <v>32</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>36.411111111111097</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="47" t="s">
         <v>32</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>17.1636363636364</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="47" t="s">
         <v>32</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>18.281481481481499</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="47" t="s">
         <v>32</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>18.436842105263199</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="47" t="s">
         <v>32</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>38.287500000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="47" t="s">
         <v>32</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>39.340000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="47" t="s">
         <v>32</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>33.857500000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="47" t="s">
         <v>32</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>23.8122222222222</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="47" t="s">
         <v>32</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>30.927272727272701</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="47" t="s">
         <v>32</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>70.25</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="47" t="s">
         <v>32</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>39.594999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="47" t="s">
         <v>32</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>31.866666666666699</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="47" t="s">
         <v>32</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>31.383333333333301</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="47" t="s">
         <v>32</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>21.875</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="47" t="s">
         <v>32</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>24.419565217391298</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="47" t="s">
         <v>32</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>31.706666666666699</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="47" t="s">
         <v>32</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>41.55</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="47" t="s">
         <v>32</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="47" t="s">
         <v>32</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>26.422222222222199</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="47" t="s">
         <v>32</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>26.756250000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="47" t="s">
         <v>32</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>24.3071428571429</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="47" t="s">
         <v>32</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>34.570370370370398</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="47" t="s">
         <v>32</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>29.072727272727299</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="63"/>
       <c r="B99" s="64"/>
       <c r="C99" s="65"/>
@@ -4510,7 +4510,7 @@
       <c r="I99" s="65"/>
       <c r="J99" s="65"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
@@ -4523,7 +4523,7 @@
       <c r="I100" s="66"/>
       <c r="J100" s="66"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>164</v>
       </c>
@@ -4536,7 +4536,7 @@
       <c r="I101" s="66"/>
       <c r="J101" s="66"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>165</v>
       </c>
@@ -4549,7 +4549,7 @@
       <c r="I102" s="66"/>
       <c r="J102" s="66"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>166</v>
       </c>
@@ -4562,7 +4562,7 @@
       <c r="I103" s="66"/>
       <c r="J103" s="66"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>167</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="I104" s="66"/>
       <c r="J104" s="66"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C105" s="66"/>
       <c r="D105" s="66"/>
       <c r="E105" s="66"/>
@@ -4585,7 +4585,7 @@
       <c r="I105" s="66"/>
       <c r="J105" s="66"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C106" s="66"/>
       <c r="D106" s="66"/>
       <c r="E106" s="66"/>
@@ -4595,7 +4595,7 @@
       <c r="I106" s="66"/>
       <c r="J106" s="66"/>
     </row>
-    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="67" t="s">
         <v>168</v>
       </c>
@@ -4608,7 +4608,7 @@
       <c r="I107" s="66"/>
       <c r="J107" s="66"/>
     </row>
-    <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="67"/>
       <c r="C108" s="66"/>
       <c r="D108" s="66"/>
@@ -4619,7 +4619,7 @@
       <c r="I108" s="66"/>
       <c r="J108" s="66"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>171</v>
       </c>
@@ -4632,7 +4632,7 @@
       <c r="I109" s="66"/>
       <c r="J109" s="66"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>172</v>
       </c>
@@ -4645,7 +4645,7 @@
       <c r="I110" s="66"/>
       <c r="J110" s="66"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>173</v>
       </c>
@@ -4658,7 +4658,7 @@
       <c r="I111" s="66"/>
       <c r="J111" s="66"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>169</v>
       </c>
@@ -4671,7 +4671,7 @@
       <c r="I112" s="66"/>
       <c r="J112" s="66"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>170</v>
       </c>
@@ -4684,7 +4684,7 @@
       <c r="I113" s="66"/>
       <c r="J113" s="66"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="66"/>
       <c r="D114" s="66"/>
@@ -4697,12 +4697,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{83D0B38F-CDFD-448D-AC0A-8B421B5921B3}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{402C8A47-942F-460D-8E14-DFAFF3BC7C6B}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{524562F7-E0CD-4262-A0A3-5D9651263497}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{871CBFEF-25F0-4F88-93C1-C07AED79954F}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{D004BC4C-7EEF-49C8-B58E-4CDFA4D89150}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{E2B153EA-E56C-4138-B243-BF083E9F678B}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{2B00F726-B4C2-4AEB-BFBD-2FE531869A0F}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{16F65D68-4D29-4A10-90B9-9C30A209A775}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{AB756D20-C573-4C33-AC85-9EA51F5839F2}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{DFB2217F-F5B1-451D-800B-AA425D2795AA}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{6212E6F8-D97E-4730-BAEA-A6351B2BFADA}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{9E0A22A2-ECD4-431C-A75B-3FE57EA40E31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId7"/>
